--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1012661.623478386</v>
+        <v>1098028.929511646</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673266</v>
+        <v>4171427.157673265</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>79.51149230610436</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.2977824924682</v>
+        <v>83.54777021721321</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>178.3777805434743</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>147.6357361135218</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>280.9228645683189</v>
+        <v>280.9228645683292</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539882</v>
+        <v>94.01296546539848</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -978,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813375</v>
+        <v>33.7470356681336</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>216.2272692918946</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>46.3185767369819</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.1638615061908</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1071,10 @@
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>129.1111563635212</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>151.3828257363614</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>362.9998788943805</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>53.99154730928128</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>118.1692128216234</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863209</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.9812949757285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>317.9226464802981</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>65.37618332860133</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>75.45713216103701</v>
+        <v>103.6708604288278</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>147.83689146714</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>104.6737263919361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.58798526114936</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="24">
@@ -2488,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>39.83117660926939</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>171.1963318343124</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.02719212039654</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.84901245549792</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>99.59933623926791</v>
       </c>
       <c r="D29" t="n">
-        <v>190.0168339602231</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X31" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>126.7498226612763</v>
+        <v>326.4523041199381</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>129.329091853684</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>235.9375844494532</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>188.2196394312111</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471489</v>
+        <v>47.41254713315882</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>293.6407719183043</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.6591887249586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>19.58945082857502</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>391.035965515196</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.9870153438497</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>111.9187566128678</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>85.09628919973844</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>28.90798465780184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>203.1002079700018</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>110.4892783404643</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.98723076369587</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946892</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946892</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="D2" t="n">
-        <v>900.5447187946892</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="E2" t="n">
-        <v>900.5447187946892</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="F2" t="n">
-        <v>634.1670622275112</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="G2" t="n">
-        <v>367.7894056603332</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>101.4117490931552</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946892</v>
+        <v>936.7014129773083</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946892</v>
+        <v>670.3237564101303</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4412,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699345</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4440,19 +4442,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110956</v>
+        <v>819.7034117742824</v>
       </c>
       <c r="W3" t="n">
-        <v>337.330209082894</v>
+        <v>565.4660550460808</v>
       </c>
       <c r="X3" t="n">
-        <v>129.4787088773612</v>
+        <v>357.614554840548</v>
       </c>
       <c r="Y3" t="n">
-        <v>129.4787088773612</v>
+        <v>149.854256075594</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.6273447026937</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C4" t="n">
-        <v>313.6273447026937</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D4" t="n">
-        <v>313.6273447026937</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4494,16 @@
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092334</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>313.6273447026937</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>313.6273447026937</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>313.6273447026937</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>313.6273447026937</v>
+        <v>905.7285138307504</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.6273447026937</v>
+        <v>684.9359346872203</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="D5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.913873701023</v>
+        <v>1267.913873701022</v>
       </c>
       <c r="F5" t="n">
-        <v>856.9279689114151</v>
+        <v>856.9279689114148</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244641</v>
+        <v>440.4816599244638</v>
       </c>
       <c r="H5" t="n">
-        <v>128.828027770548</v>
+        <v>128.8280277705478</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.4604468780281</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818682</v>
+        <v>270.9975490818701</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373967</v>
+        <v>509.5409587374001</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176454</v>
+        <v>806.6359018176505</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>1113.151960058972</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836693</v>
+        <v>1389.2511208367</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1590.394365921693</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="X5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1551.674342961951</v>
+        <v>1551.674342961961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401.6438354942364</v>
+        <v>931.8121952449673</v>
       </c>
       <c r="C6" t="n">
-        <v>227.1908062131095</v>
+        <v>757.3591659638403</v>
       </c>
       <c r="D6" t="n">
-        <v>227.1908062131095</v>
+        <v>608.424756302589</v>
       </c>
       <c r="E6" t="n">
-        <v>67.95335120765395</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>67.95335120765395</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765395</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765399</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324411</v>
+        <v>59.47586665324476</v>
       </c>
       <c r="K6" t="n">
-        <v>181.402995865049</v>
+        <v>181.4029958650504</v>
       </c>
       <c r="L6" t="n">
-        <v>484.5155242316271</v>
+        <v>391.6716089877859</v>
       </c>
       <c r="M6" t="n">
-        <v>749.2459461883677</v>
+        <v>656.4020309445277</v>
       </c>
       <c r="N6" t="n">
-        <v>1035.391639600095</v>
+        <v>942.5477243562564</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943141</v>
+        <v>1246.499900084659</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557609</v>
+        <v>1419.424910699128</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232575</v>
+        <v>1693.078019232585</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567861</v>
+        <v>1550.180157843117</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567861</v>
+        <v>1354.574272178456</v>
       </c>
       <c r="U6" t="n">
-        <v>1474.860436444735</v>
+        <v>1354.574272178456</v>
       </c>
       <c r="V6" t="n">
-        <v>1239.708328212993</v>
+        <v>1354.574272178456</v>
       </c>
       <c r="W6" t="n">
-        <v>985.4709714847911</v>
+        <v>1354.574272178456</v>
       </c>
       <c r="X6" t="n">
-        <v>777.6194712792583</v>
+        <v>1307.787831029989</v>
       </c>
       <c r="Y6" t="n">
-        <v>569.8591725143044</v>
+        <v>1100.027532265035</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>936.7052742478062</v>
+        <v>651.9106215521701</v>
       </c>
       <c r="C7" t="n">
-        <v>767.7690913198993</v>
+        <v>651.9106215521701</v>
       </c>
       <c r="D7" t="n">
-        <v>617.6524519075635</v>
+        <v>501.7939821398344</v>
       </c>
       <c r="E7" t="n">
-        <v>469.7393583251704</v>
+        <v>353.8808885574413</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>353.8808885574413</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>185.561786156928</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590865</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135723</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652175</v>
+        <v>36.28512133652222</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128594</v>
+        <v>170.0982437128603</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119581</v>
+        <v>396.8594047119595</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191529</v>
+        <v>646.336377819155</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361642</v>
+        <v>895.3159625361669</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.272612021383</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580465</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486383</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="T7" t="n">
-        <v>1093.436447486383</v>
+        <v>1071.46241238146</v>
       </c>
       <c r="U7" t="n">
-        <v>1093.436447486383</v>
+        <v>782.3259310102724</v>
       </c>
       <c r="V7" t="n">
-        <v>1093.436447486383</v>
+        <v>651.9106215521701</v>
       </c>
       <c r="W7" t="n">
-        <v>1093.436447486383</v>
+        <v>651.9106215521701</v>
       </c>
       <c r="X7" t="n">
-        <v>1093.436447486383</v>
+        <v>651.9106215521701</v>
       </c>
       <c r="Y7" t="n">
-        <v>1093.436447486383</v>
+        <v>651.9106215521701</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1632.688211171978</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2409.427383211912</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2409.427383211912</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2409.427383211912</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>2409.427383211912</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="Y8" t="n">
-        <v>2019.2880512361</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.9309660677</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>888.4518357083929</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>719.515652780486</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>569.3990133681502</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1517.083278840534</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1294.10479803527</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1004.986460539108</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>750.3019723332208</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W10" t="n">
-        <v>460.8848022962601</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X10" t="n">
-        <v>232.8952513982428</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>888.4518357083929</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5038,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.849394875187</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
         <v>2731.767278738087</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,46 +5126,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5194,22 +5196,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>2209.232076102166</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1840.269559161754</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1482.003860555003</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1096.215607956759</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>685.2297031671517</v>
       </c>
       <c r="G14" t="n">
         <v>364.0957168234162</v>
@@ -5276,22 +5278,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2689.770379977556</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2689.770379977556</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.770379977556</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
@@ -5355,13 +5357,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.370295943747</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C17" t="n">
-        <v>1308.370295943747</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.370295943747</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5510,55 +5512,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.464090846021</v>
+        <v>1556.197739256867</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.464090846021</v>
+        <v>1301.51325105098</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>784.1065301160024</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2065.110222835252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.14770589484</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.88200728809</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
         <v>1232.150970528558</v>
@@ -5747,16 +5749,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5765,37 +5767,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X20" t="n">
-        <v>2841.849394875186</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y20" t="n">
-        <v>2451.710062899374</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5822,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>499.9630948243446</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C22" t="n">
-        <v>499.9630948243446</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>499.9630948243446</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>499.9630948243446</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>353.0731473264342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T22" t="n">
-        <v>1735.608663915319</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U22" t="n">
-        <v>1446.505797040962</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>1191.821308835075</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>902.4041387981144</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X22" t="n">
-        <v>902.4041387981144</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>681.6115596545843</v>
+        <v>1540.3362096043</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>552.807938939214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>194.5422403324635</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6005,7 +6007,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6020,19 +6022,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>2392.59927678083</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>2223.663093852923</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>1925.633360858195</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>1854.900232967364</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.215744761477</v>
+        <v>3312.447041689578</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.798574724517</v>
+        <v>3023.029871652618</v>
       </c>
       <c r="X25" t="n">
-        <v>1082.809023826499</v>
+        <v>2795.0403207546</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>2574.24774161107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2016.438433460088</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6254,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W26" t="n">
-        <v>2403.03827352421</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X26" t="n">
-        <v>2403.03827352421</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y26" t="n">
-        <v>2403.03827352421</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
@@ -6300,49 +6302,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2392.59927678083</v>
+        <v>2405.758056700424</v>
       </c>
       <c r="C28" t="n">
-        <v>2223.663093852923</v>
+        <v>2236.821873772517</v>
       </c>
       <c r="D28" t="n">
-        <v>2073.546454440588</v>
+        <v>2086.705234360181</v>
       </c>
       <c r="E28" t="n">
-        <v>1925.633360858195</v>
+        <v>1938.792140777788</v>
       </c>
       <c r="F28" t="n">
-        <v>1778.743413360284</v>
+        <v>1791.902193279878</v>
       </c>
       <c r="G28" t="n">
-        <v>1611.040576735003</v>
+        <v>1624.199356654597</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>1477.982169872455</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q28" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193525</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T28" t="n">
-        <v>3023.029871652618</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U28" t="n">
-        <v>3023.029871652618</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V28" t="n">
-        <v>3023.029871652618</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W28" t="n">
-        <v>3023.029871652618</v>
+        <v>3036.188651572211</v>
       </c>
       <c r="X28" t="n">
-        <v>2795.0403207546</v>
+        <v>2808.199100674194</v>
       </c>
       <c r="Y28" t="n">
-        <v>2574.24774161107</v>
+        <v>2587.406521530664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.878520285689</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C29" t="n">
-        <v>1767.878520285689</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810557</v>
@@ -6473,7 +6475,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6491,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.878520285689</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
         <v>618.1564155387305</v>
@@ -6528,22 +6530,22 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
         <v>765.1517452158134</v>
@@ -6555,19 +6557,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
         <v>2242.828302297192</v>
@@ -6619,16 +6621,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6640,25 +6642,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882606</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W31" t="n">
-        <v>1672.610059882606</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X31" t="n">
         <v>1494.054724415577</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796247</v>
+        <v>1561.90077266991</v>
       </c>
       <c r="C32" t="n">
-        <v>552.807938939213</v>
+        <v>1561.90077266991</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5422403324625</v>
+        <v>1561.90077266991</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218339</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218339</v>
@@ -6704,7 +6706,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6731,19 +6733,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919558</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943746</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.82338995286</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.82338995286</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.82338995286</v>
+        <v>440.6904267128328</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.82338995286</v>
+        <v>440.6904267128328</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.82338995286</v>
+        <v>440.6904267128328</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.82338995286</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888693</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682807</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645846</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.128788747829</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y34" t="n">
-        <v>1540.336209604299</v>
+        <v>590.8070661251686</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1632.511388127729</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.548871187317</v>
+        <v>663.098607412119</v>
       </c>
       <c r="D35" t="n">
-        <v>905.2831725805665</v>
+        <v>304.8329088053685</v>
       </c>
       <c r="E35" t="n">
-        <v>519.4949199823222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6965,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3135.484973698856</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2782.716318428742</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2409.250560167662</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.11122819185</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986302</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7129,16 +7131,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088492</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7159,13 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7175,7 +7177,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
@@ -7184,7 +7186,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7208,16 +7210,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339055</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>2972.837166339055</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7247,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,7 +7268,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.41198488674</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952861</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888693</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682807</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645846</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X40" t="n">
-        <v>1761.128788747829</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y40" t="n">
-        <v>1540.336209604299</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>2329.167357637081</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1960.204840696669</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1601.939142089919</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528559</v>
+        <v>1216.150889491674</v>
       </c>
       <c r="F41" t="n">
         <v>821.1650657389512</v>
@@ -7406,16 +7408,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7430,31 +7432,31 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2866.097597267228</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X41" t="n">
-        <v>2866.097597267228</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>2329.167357637081</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7484,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158128</v>
@@ -7503,13 +7505,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>590.8070661251681</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C43" t="n">
-        <v>590.8070661251681</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D43" t="n">
-        <v>590.8070661251681</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E43" t="n">
-        <v>590.8070661251681</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7606,13 +7608,13 @@
         <v>880.2242361621287</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251681</v>
+        <v>794.2683884856252</v>
       </c>
       <c r="X43" t="n">
-        <v>590.8070661251681</v>
+        <v>566.2788375876079</v>
       </c>
       <c r="Y43" t="n">
-        <v>590.8070661251681</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796247</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>892.5704713767946</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218339</v>
@@ -7649,19 +7651,19 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919558</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943746</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C46" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1891.953910953445</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1700.268026780272</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T46" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U46" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V46" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W46" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.51186045178</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.71928130825</v>
+        <v>1203.219012098842</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157973</v>
+        <v>25.82445471157919</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>93.78173256953886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>181.3506708776249</v>
+        <v>65.05511571131717</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.35797727397613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.0688818921482</v>
       </c>
       <c r="Y11" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>92.99907917315534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>262.3760751415336</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>306.4732379112248</v>
+        <v>278.259509643434</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>138.3749467384729</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>277.2566436803257</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.4378229978789</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="24">
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24418,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>214.5414662356961</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>325.4417151617382</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>235.679713907399</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>83.32522828944155</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>198.6999368206713</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>265.6735555317396</v>
       </c>
       <c r="D29" t="n">
-        <v>164.6662076604599</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X31" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>255.1805474109854</v>
+        <v>55.47806595232367</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270136</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>36.6967164053442</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>145.9927856228086</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>139.5326190389238</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944209</v>
+        <v>239.1104512034322</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>89.09306974517631</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -25448,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>147.578749931095</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.6223873770379</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>15.84008022651545</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>253.2509233122039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>33.50229141006348</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>201.4267091368526</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>336.3649071132057</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>183.1377306860518</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>69.34270184147302</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.9449219063515</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811712.2299868733</v>
+        <v>811712.2299868735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811712.2299868736</v>
+        <v>811712.2299868735</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811712.2299868731</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811712.2299868733</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868733</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719635</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719625</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="F2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="H2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="I2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="J2" t="n">
         <v>392146.663816559</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="K2" t="n">
-        <v>392146.6638165589</v>
-      </c>
       <c r="L2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="M2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="N2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="O2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165587</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739487</v>
+        <v>176672.6241739512</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381909</v>
+        <v>223886.3093819061</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640768</v>
+        <v>41076.98154640826</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946848</v>
+        <v>54988.29121946779</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.26579341506</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>203693.4420659828</v>
+        <v>203693.442065982</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26433,28 +26435,28 @@
         <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
         <v>10990.29103211611</v>
       </c>
       <c r="J4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="K4" t="n">
         <v>10990.29103211609</v>
       </c>
       <c r="L4" t="n">
+        <v>10990.29103211609</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10990.29103211609</v>
+      </c>
+      <c r="N4" t="n">
         <v>10990.29103211611</v>
       </c>
-      <c r="M4" t="n">
-        <v>10990.29103211611</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10990.29103211612</v>
-      </c>
       <c r="O4" t="n">
-        <v>10990.29103211612</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211612</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923103</v>
+        <v>75746.87167923125</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26485,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26506,7 +26508,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522264.1317425155</v>
+        <v>-522264.131742516</v>
       </c>
       <c r="C6" t="n">
-        <v>15986.07975280017</v>
+        <v>15986.07975279803</v>
       </c>
       <c r="D6" t="n">
-        <v>14936.25201274868</v>
+        <v>14936.25201275156</v>
       </c>
       <c r="E6" t="n">
-        <v>124777.052405859</v>
+        <v>124777.0524058586</v>
       </c>
       <c r="F6" t="n">
-        <v>306850.0322230496</v>
+        <v>306850.0322230497</v>
       </c>
       <c r="G6" t="n">
+        <v>306850.0322230495</v>
+      </c>
+      <c r="H6" t="n">
         <v>306850.0322230494</v>
       </c>
-      <c r="H6" t="n">
-        <v>306850.0322230497</v>
-      </c>
       <c r="I6" t="n">
-        <v>306850.0322230496</v>
+        <v>306850.0322230498</v>
       </c>
       <c r="J6" t="n">
-        <v>237850.8778039353</v>
+        <v>237850.8778039354</v>
       </c>
       <c r="K6" t="n">
-        <v>265773.0506766418</v>
+        <v>265773.0506766412</v>
       </c>
       <c r="L6" t="n">
-        <v>251861.7410035808</v>
+        <v>251861.7410035816</v>
       </c>
       <c r="M6" t="n">
-        <v>259297.7664296346</v>
+        <v>259297.7664296344</v>
       </c>
       <c r="N6" t="n">
         <v>306850.0322230494</v>
       </c>
       <c r="O6" t="n">
-        <v>306850.0322230494</v>
+        <v>306850.0322230496</v>
       </c>
       <c r="P6" t="n">
-        <v>306850.0322230494</v>
+        <v>306850.0322230493</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.446789990805</v>
+        <v>751.4467899908071</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919653</v>
+        <v>423.3179548919679</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26826,7 +26828,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26957,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213268</v>
+        <v>137.3917762213287</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267344</v>
+        <v>182.618102126732</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904616</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080735</v>
+        <v>217.2668772080708</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080733</v>
+        <v>217.2668772080706</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904591</v>
+        <v>159.6040748904616</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080735</v>
+        <v>217.2668772080708</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
-        <v>50.4797526277618</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>35.79512724079275</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>252.7585347200395</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.2354011573991</v>
+        <v>82.98541343265413</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>107.8808499592031</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>78.07391927551532</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>101.0075055039429</v>
+        <v>101.0075055039326</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27698,19 +27700,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>9.607775979175841</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>159.4544084664956</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.66811867574646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>123.0264869603068</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>99.6624243921006</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>23.23805976167313</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>92.44241533728788</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>76.49324754011401</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053485</v>
+        <v>3.020891618053494</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339026</v>
+        <v>30.93770628339035</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677672</v>
+        <v>256.3943999677679</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599713</v>
+        <v>384.2687421599724</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159757</v>
+        <v>476.7193540159771</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285344</v>
+        <v>530.4421353285359</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383289</v>
+        <v>539.0252436383305</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113095</v>
+        <v>508.986252611311</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906141</v>
+        <v>434.4079907906153</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190735</v>
+        <v>326.2223097190745</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025524</v>
+        <v>189.7610831025529</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639386</v>
+        <v>68.83856774639406</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802914</v>
+        <v>13.22395305802918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.2416713294442794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61631951054626</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>15.61024369395998</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328132</v>
+        <v>55.64959718328148</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433206</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>261.0001553499202</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876869</v>
+        <v>350.9469182876878</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449887</v>
+        <v>409.5385005449899</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345731</v>
+        <v>420.3777660345743</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587849</v>
+        <v>384.563528458786</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>308.6461353077336</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>206.3217676970986</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633073</v>
+        <v>30.02242599633081</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807071</v>
+        <v>6.51490188680709</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950632</v>
+        <v>1.355067981950636</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952472</v>
+        <v>12.04778623952475</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720629</v>
+        <v>40.7505898572064</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390967</v>
+        <v>95.80330632390994</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029916</v>
+        <v>157.434261902992</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>201.4616525165518</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706795</v>
+        <v>212.4130655706801</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.3623576379551</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488039</v>
+        <v>191.5326998488045</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170109</v>
+        <v>163.8893130170114</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.4684652886119</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843475</v>
+        <v>60.92878398843493</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544873</v>
+        <v>23.6151392854488</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879971</v>
+        <v>5.789835922879988</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0739127990154891</v>
+        <v>0.07391279901548931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095031</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34150,10 +34152,10 @@
         <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781699</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563588</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806946</v>
@@ -34223,7 +34225,7 @@
         <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002925</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410809</v>
+        <v>75.34849544108164</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149907</v>
+        <v>164.1788911149919</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459885</v>
+        <v>240.9529390459899</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012617</v>
+        <v>300.0959021012632</v>
       </c>
       <c r="N5" t="n">
-        <v>309.612180041738</v>
+        <v>309.6121800417396</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896228</v>
+        <v>278.8880411896242</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353445</v>
+        <v>203.1749950353458</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844624</v>
+        <v>103.916619844625</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665342</v>
+        <v>25.86912147665387</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755605</v>
+        <v>123.1587163755613</v>
       </c>
       <c r="L6" t="n">
-        <v>306.1742710773515</v>
+        <v>212.3925385078136</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229703</v>
+        <v>267.4044666229715</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512398</v>
+        <v>289.036053951241</v>
       </c>
       <c r="O6" t="n">
-        <v>423.3179548919653</v>
+        <v>307.0223997256587</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934025</v>
+        <v>174.6717278934034</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107649</v>
+        <v>276.4172813469262</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144308284</v>
+        <v>0.1957579144311126</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236891</v>
+        <v>2.444126207237161</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771087</v>
+        <v>135.1647700771092</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768674</v>
+        <v>229.051677776868</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325201</v>
+        <v>251.9969425325206</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171837</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628436</v>
+        <v>216.1178277628441</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819044</v>
+        <v>161.1678722819049</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691717</v>
+        <v>27.30642203691748</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391849</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.8386996048307</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129122</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222663</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859623</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1098028.929511646</v>
+        <v>1076749.046690583</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673265</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>130.9356567043873</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015063</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>116.9725659584295</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.54777021721321</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>65.39524526193546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>147.6357361135218</v>
+        <v>179.1218489843615</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>280.9228645683292</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>58.20201033297688</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539848</v>
+        <v>94.01296546539866</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681336</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>102.5292393953953</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>46.3185767369819</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>17.53316602619077</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>129.1111563635212</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>253.9512290186725</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.9998788943805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>53.99154730928128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.963052384154964</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>285.0189589184517</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863209</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471498</v>
+        <v>42.29200062050099</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>362.5871609895956</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>317.9226464802981</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.00186811941006</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>103.6708604288278</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>316.7197341507565</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.20584125154443</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>147.83689146714</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>201.66221878632</v>
+        <v>23.34416082770747</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>80.50796942908565</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>211.078518472239</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7944255145766</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>130.3899231758514</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>171.1963318343124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>72.33640507852714</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>13.02719212039654</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>99.59933623926791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>44.28190385754277</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -2845,16 +2845,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>105.9626607935821</v>
       </c>
       <c r="E32" t="n">
-        <v>326.4523041199381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>129.329091853684</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>167.1308651661306</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>235.9375844494532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>229.7965692041375</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>57.53747797766582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>47.41254713315882</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>293.6407719183043</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>302.4973592433166</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>5.264199955998566</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>19.58945082857502</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>391.035965515196</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>302.4973592433175</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.3492485097303</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>85.09628919973844</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>203.1002079700018</v>
+        <v>46.27182779876188</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.4892783404643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>86.66480470122536</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.3237564101303</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="C2" t="n">
-        <v>670.3237564101303</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="D2" t="n">
-        <v>670.3237564101303</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="E2" t="n">
-        <v>670.3237564101303</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429522</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515906</v>
@@ -4342,10 +4342,10 @@
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="X2" t="n">
-        <v>936.7014129773083</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.3237564101303</v>
+        <v>686.1106626298174</v>
       </c>
     </row>
     <row r="3">
@@ -4427,34 +4427,34 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>970.4638329179309</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742824</v>
+        <v>735.3117246861882</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460808</v>
+        <v>481.0743679579866</v>
       </c>
       <c r="X3" t="n">
-        <v>357.614554840548</v>
+        <v>273.2228677524538</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.854256075594</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.2874698569806</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C4" t="n">
-        <v>334.3512869290737</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="X4" t="n">
-        <v>905.7285138307504</v>
+        <v>352.8622146426959</v>
       </c>
       <c r="Y4" t="n">
-        <v>684.9359346872203</v>
+        <v>352.8622146426959</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1551.674342961961</v>
+        <v>598.6038419874048</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.674342961961</v>
+        <v>598.6038419874048</v>
       </c>
       <c r="D5" t="n">
-        <v>1551.674342961961</v>
+        <v>598.6038419874048</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.913873701022</v>
+        <v>598.6038419874048</v>
       </c>
       <c r="F5" t="n">
-        <v>856.9279689114148</v>
+        <v>187.6179371977973</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244638</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705478</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780281</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818701</v>
+        <v>270.9975490818697</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374001</v>
+        <v>509.5409587373991</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176505</v>
+        <v>806.6359018176486</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058972</v>
+        <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.2511208367</v>
+        <v>1389.251120836697</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921693</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961961</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961961</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961961</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961961</v>
+        <v>1362.208932224296</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.674342961961</v>
+        <v>1362.208932224296</v>
       </c>
       <c r="X5" t="n">
-        <v>1551.674342961961</v>
+        <v>988.7431739632166</v>
       </c>
       <c r="Y5" t="n">
-        <v>1551.674342961961</v>
+        <v>598.6038419874048</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8121952449673</v>
+        <v>516.4903303391911</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>342.0373010580641</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>193.1028913968129</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765399</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324476</v>
+        <v>184.3059916402492</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650504</v>
+        <v>306.2331208520545</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877859</v>
+        <v>516.5017339747894</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445277</v>
+        <v>781.2321559315307</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562564</v>
+        <v>1067.377849343259</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.499900084659</v>
+        <v>1306.925460517456</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699128</v>
+        <v>1479.850471131925</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232585</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843117</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178456</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="U6" t="n">
-        <v>1354.574272178456</v>
+        <v>1589.70693128969</v>
       </c>
       <c r="V6" t="n">
-        <v>1354.574272178456</v>
+        <v>1354.554823057947</v>
       </c>
       <c r="W6" t="n">
-        <v>1354.574272178456</v>
+        <v>1100.317466329746</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.787831029989</v>
+        <v>892.4659661242131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.027532265035</v>
+        <v>684.7056673592592</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.9106215521701</v>
+        <v>647.7212998119035</v>
       </c>
       <c r="C7" t="n">
-        <v>651.9106215521701</v>
+        <v>478.7851168839966</v>
       </c>
       <c r="D7" t="n">
-        <v>501.7939821398344</v>
+        <v>328.6684774716608</v>
       </c>
       <c r="E7" t="n">
-        <v>353.8808885574413</v>
+        <v>180.7553838892677</v>
       </c>
       <c r="F7" t="n">
-        <v>353.8808885574413</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="G7" t="n">
-        <v>185.561786156928</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135734</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652222</v>
+        <v>36.28512133652199</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128603</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119595</v>
+        <v>396.8594047119587</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819155</v>
+        <v>646.3363778191539</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361669</v>
+        <v>895.3159625361654</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021383</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.46241238146</v>
+        <v>1278.151894683691</v>
       </c>
       <c r="U7" t="n">
-        <v>782.3259310102724</v>
+        <v>1278.151894683691</v>
       </c>
       <c r="V7" t="n">
-        <v>651.9106215521701</v>
+        <v>1278.151894683691</v>
       </c>
       <c r="W7" t="n">
-        <v>651.9106215521701</v>
+        <v>1278.151894683691</v>
       </c>
       <c r="X7" t="n">
-        <v>651.9106215521701</v>
+        <v>1050.162343785673</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.9106215521701</v>
+        <v>829.3697646421432</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1520.24208717972</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1134.453834581476</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>723.4679297918683</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>307.7631795161572</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4810,7 +4810,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735865</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.825031735865</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>888.4518357083929</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>719.515652780486</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>569.3990133681502</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1632.443036858179</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1343.324699362017</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.23396574994</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.244414851923</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y10" t="n">
-        <v>888.4518357083929</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609172</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5229,22 +5229,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2209.232076102166</v>
+        <v>1914.669427940026</v>
       </c>
       <c r="C14" t="n">
-        <v>1840.269559161754</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D14" t="n">
-        <v>1482.003860555003</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E14" t="n">
-        <v>1096.215607956759</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>685.2297031671517</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102166</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1238.038871968309</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>869.0763550278978</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>510.8106564211473</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539437</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269323</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008243</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.638712032431</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5597,7 +5597,7 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158131</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.6654861422326</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C19" t="n">
-        <v>212.7293032143257</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143257</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5706,19 +5706,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1556.197739256867</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1301.51325105098</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1012.09608101402</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>784.1065301160024</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.3139509724723</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>3121.906610713899</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>382.3382468580006</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763052</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1556.870499972635</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1302.186011766748</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645848</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>784.7792908317705</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.3362096043</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520488</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="V23" t="n">
-        <v>3009.337405520488</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W23" t="n">
-        <v>3009.337405520488</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X23" t="n">
-        <v>3009.337405520488</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="24">
@@ -6089,7 +6089,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2392.59927678083</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>2223.663093852923</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>2073.546454440588</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>1925.633360858195</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1778.743413360284</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V25" t="n">
-        <v>3312.447041689578</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W25" t="n">
-        <v>3023.029871652618</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X25" t="n">
-        <v>2795.0403207546</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y25" t="n">
-        <v>2574.24774161107</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.110222835253</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.147705894841</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.882007288091</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>952.0937546898465</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136266</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W26" t="n">
-        <v>3215.315153136266</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X26" t="n">
-        <v>2841.849394875187</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y26" t="n">
-        <v>2451.710062899375</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
@@ -6302,49 +6302,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2405.758056700424</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C28" t="n">
-        <v>2236.821873772517</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D28" t="n">
-        <v>2086.705234360181</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E28" t="n">
-        <v>1938.792140777788</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F28" t="n">
-        <v>1791.902193279878</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="G28" t="n">
-        <v>1624.199356654597</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>1477.982169872455</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.605821609171</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W28" t="n">
-        <v>3036.188651572211</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>2808.199100674194</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y28" t="n">
-        <v>2587.406521530664</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C29" t="n">
-        <v>821.1650657389509</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D29" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="30">
@@ -6548,13 +6548,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088492</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088492</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1561.90077266991</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C32" t="n">
-        <v>1561.90077266991</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D32" t="n">
-        <v>1561.90077266991</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6706,7 +6706,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906802</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.040104645722</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y32" t="n">
-        <v>1561.90077266991</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>590.8070661251686</v>
+        <v>697.2814163499066</v>
       </c>
       <c r="C34" t="n">
-        <v>590.8070661251686</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D34" t="n">
-        <v>440.6904267128328</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E34" t="n">
-        <v>440.6904267128328</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F34" t="n">
-        <v>440.6904267128328</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218339</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1758.475492365128</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1469.372625490771</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621292</v>
+        <v>1214.688137284885</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251686</v>
+        <v>925.270967247924</v>
       </c>
       <c r="X34" t="n">
-        <v>590.8070661251686</v>
+        <v>697.2814163499066</v>
       </c>
       <c r="Y34" t="n">
-        <v>590.8070661251686</v>
+        <v>697.2814163499066</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1032.061124352531</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>663.098607412119</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>304.8329088053685</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218342</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
         <v>66.51211643218342</v>
@@ -6937,25 +6937,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653544</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392464</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1418.660964416652</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986302</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>994.2880032601528</v>
+        <v>759.2995336040051</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3518203322459</v>
+        <v>590.3633506760982</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>440.2467112637624</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>292.3336176813693</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>292.3336176813693</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>124.6307810560883</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1672.610059882605</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.71859813194</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X37" t="n">
-        <v>1396.729047233923</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.936468090393</v>
+        <v>940.9479984342448</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>825.0478081068845</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>414.061903317277</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X38" t="n">
-        <v>2641.774278995485</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y38" t="n">
-        <v>2641.774278995485</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1494.054724415577</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1494.054724415577</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>1494.054724415577</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2329.167357637081</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C41" t="n">
-        <v>1960.204840696669</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D41" t="n">
-        <v>1601.939142089919</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.150889491674</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389512</v>
+        <v>414.0619033172779</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W41" t="n">
         <v>2719.306689612893</v>
       </c>
       <c r="X41" t="n">
-        <v>2719.306689612893</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y41" t="n">
-        <v>2329.167357637081</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,7 +7505,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.8377936138381</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C43" t="n">
-        <v>163.8377936138381</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8377936138381</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621287</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>794.2683884856252</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>566.2788375876079</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>345.4862584440777</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653543</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X44" t="n">
-        <v>2182.266054653543</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242372</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1424.011591242372</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W46" t="n">
-        <v>1424.011591242372</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.011591242372</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y46" t="n">
-        <v>1203.219012098842</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157919</v>
+        <v>25.82445471157948</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>65.05511571131717</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>149.2371260211881</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688986</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L9" t="n">
-        <v>114.3555089013348</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>80.25393285255581</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921482</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944121</v>
+        <v>244.23099771609</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.685730781411962</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.99907917315534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>278.259509643434</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>53.01136652771254</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2281213950247</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.3749467384729</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>168.0688818921491</v>
+        <v>346.3869398507616</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.424183240961696</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>39.91665348666299</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>111.443513141477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24417,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>95.31973221318572</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>235.679713907399</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.68940318050109</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.32522828944155</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24660,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>265.6735555317396</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>310.4011377631402</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>248.7203808271008</v>
       </c>
       <c r="E32" t="n">
-        <v>55.47806595232367</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>36.6967164053442</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>52.41808411003856</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>145.9927856228086</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25207,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.19860275476452</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>87.21753693665497</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>239.1104512034322</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.09306974517631</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>108.4243664101368</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>161.9826211426293</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>266.6223873770379</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>15.84008022651545</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>108.4243664101359</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>70.08471413683887</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>201.4267091368526</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.1377306860518</v>
+        <v>339.9661108572917</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.34270184147302</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>79.36100355780286</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811712.2299868735</v>
+        <v>811712.2299868733</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811712.2299868735</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868731</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811712.2299868733</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868731</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811712.2299868733</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719625</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165591</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="H2" t="n">
+        <v>392146.6638165587</v>
+      </c>
+      <c r="I2" t="n">
+        <v>392146.6638165587</v>
+      </c>
+      <c r="J2" t="n">
         <v>392146.6638165589</v>
-      </c>
-      <c r="H2" t="n">
-        <v>392146.663816559</v>
-      </c>
-      <c r="I2" t="n">
-        <v>392146.6638165588</v>
-      </c>
-      <c r="J2" t="n">
-        <v>392146.663816559</v>
       </c>
       <c r="K2" t="n">
         <v>392146.6638165588</v>
@@ -26349,13 +26349,13 @@
         <v>392146.6638165588</v>
       </c>
       <c r="N2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="O2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="O2" t="n">
-        <v>392146.663816559</v>
-      </c>
       <c r="P2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165591</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739512</v>
+        <v>176672.6241739499</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819061</v>
+        <v>223886.3093819075</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171911</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911416</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640826</v>
+        <v>41076.98154640805</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946779</v>
+        <v>54988.29121946811</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341506</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>203693.442065982</v>
+        <v>203693.4420659824</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26438,7 +26438,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="J4" t="n">
         <v>10990.29103211609</v>
@@ -26450,16 +26450,16 @@
         <v>10990.29103211609</v>
       </c>
       <c r="M4" t="n">
+        <v>10990.29103211611</v>
+      </c>
+      <c r="N4" t="n">
         <v>10990.29103211609</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10990.29103211611</v>
       </c>
       <c r="O4" t="n">
         <v>10990.29103211609</v>
       </c>
       <c r="P4" t="n">
-        <v>10990.29103211612</v>
+        <v>10990.29103211609</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923125</v>
+        <v>75746.87167923115</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,13 +26487,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522264.131742516</v>
+        <v>-522264.1317425157</v>
       </c>
       <c r="C6" t="n">
-        <v>15986.07975279803</v>
+        <v>15986.07975279941</v>
       </c>
       <c r="D6" t="n">
-        <v>14936.25201275156</v>
+        <v>14936.25201275002</v>
       </c>
       <c r="E6" t="n">
-        <v>124777.0524058586</v>
+        <v>121300.8631077978</v>
       </c>
       <c r="F6" t="n">
-        <v>306850.0322230497</v>
+        <v>303373.8429249885</v>
       </c>
       <c r="G6" t="n">
-        <v>306850.0322230495</v>
+        <v>303373.8429249885</v>
       </c>
       <c r="H6" t="n">
-        <v>306850.0322230494</v>
+        <v>303373.8429249885</v>
       </c>
       <c r="I6" t="n">
-        <v>306850.0322230498</v>
+        <v>303373.8429249882</v>
       </c>
       <c r="J6" t="n">
-        <v>237850.8778039354</v>
+        <v>234374.6885058744</v>
       </c>
       <c r="K6" t="n">
-        <v>265773.0506766412</v>
+        <v>262296.8613785803</v>
       </c>
       <c r="L6" t="n">
-        <v>251861.7410035816</v>
+        <v>248385.5517055203</v>
       </c>
       <c r="M6" t="n">
-        <v>259297.7664296344</v>
+        <v>255821.5771315734</v>
       </c>
       <c r="N6" t="n">
-        <v>306850.0322230494</v>
+        <v>303373.8429249885</v>
       </c>
       <c r="O6" t="n">
-        <v>306850.0322230496</v>
+        <v>303373.8429249884</v>
       </c>
       <c r="P6" t="n">
-        <v>306850.0322230493</v>
+        <v>303373.8429249888</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908071</v>
+        <v>751.446789990806</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26792,28 +26792,28 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919679</v>
+        <v>423.3179548919668</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26962,25 +26962,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213287</v>
+        <v>137.3917762213277</v>
       </c>
       <c r="D3" t="n">
-        <v>182.618102126732</v>
+        <v>182.6181021267332</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904616</v>
+        <v>159.6040748904604</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080708</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904614</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080706</v>
+        <v>217.2668772080718</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022546</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904616</v>
+        <v>159.6040748904604</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080708</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>250.9947133678745</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>252.7585347200395</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.98541343265413</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>160.4592422416192</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>78.07391927551532</v>
+        <v>46.5878064046756</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>101.0075055039326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>354.0798355641047</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -27675,16 +27675,16 @@
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813368</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>123.3058058756752</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>159.4544084664956</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
         <v>114.6998850700519</v>
@@ -27824,25 +27824,25 @@
         <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>204.6225874792108</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>123.0264869603068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>47.0673235437329</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.23805976167313</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>92.44241533728788</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>216.785643613057</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053494</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339035</v>
+        <v>30.93770628339031</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>256.3943999677676</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599724</v>
+        <v>384.2687421599719</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159771</v>
+        <v>476.7193540159764</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285359</v>
+        <v>530.4421353285351</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383305</v>
+        <v>539.0252436383296</v>
       </c>
       <c r="O5" t="n">
-        <v>508.986252611311</v>
+        <v>508.9862526113102</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906153</v>
+        <v>434.4079907906146</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190745</v>
+        <v>326.222309719074</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639406</v>
+        <v>68.83856774639395</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802918</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.2416713294442791</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395998</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328148</v>
+        <v>55.64959718328139</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433206</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>350.9469182876873</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449899</v>
+        <v>409.5385005449892</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345743</v>
+        <v>420.3777660345737</v>
       </c>
       <c r="O6" t="n">
-        <v>384.563528458786</v>
+        <v>384.5635284587854</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077336</v>
+        <v>308.6461353077332</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633081</v>
+        <v>30.02242599633077</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680709</v>
+        <v>6.51490188680708</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950636</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572064</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390994</v>
+        <v>95.80330632390979</v>
       </c>
       <c r="K7" t="n">
-        <v>157.434261902992</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706801</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>207.3623576379548</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488045</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170114</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886119</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843493</v>
+        <v>60.92878398843484</v>
       </c>
       <c r="S7" t="n">
-        <v>23.6151392854488</v>
+        <v>23.61513928544876</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879988</v>
+        <v>5.789835922879979</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548931</v>
+        <v>0.07391279901548919</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33277,7 +33277,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563588</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987485</v>
@@ -34237,10 +34237,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108164</v>
+        <v>75.3484954410813</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149919</v>
+        <v>164.1788911149913</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459899</v>
+        <v>240.9529390459892</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012632</v>
+        <v>300.0959021012624</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417396</v>
+        <v>309.6121800417387</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896242</v>
+        <v>278.8880411896234</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353458</v>
+        <v>203.1749950353451</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844625</v>
+        <v>103.9166198446245</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665387</v>
+        <v>151.9601568170625</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755613</v>
+        <v>123.1587163755609</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>212.3925385078131</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229715</v>
+        <v>267.4044666229709</v>
       </c>
       <c r="N6" t="n">
-        <v>289.036053951241</v>
+        <v>289.0360539512403</v>
       </c>
       <c r="O6" t="n">
-        <v>307.0223997256587</v>
+        <v>241.967284014341</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934034</v>
+        <v>174.6717278934029</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469262</v>
+        <v>215.5771196322649</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144311126</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237161</v>
+        <v>2.444126207237019</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771092</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.051677776868</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>251.4945300171834</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819049</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691748</v>
+        <v>27.30642203691731</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L9" t="n">
-        <v>412.0358695391849</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36925,7 +36925,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37150,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222663</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.233896612727</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1076749.046690583</v>
+        <v>1094366.496554662</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673262</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.9356567043873</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>28.19474928071404</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015063</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>65.39524526193546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>194.8702723308017</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>48.25993308027189</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>179.1218489843615</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>58.20201033297688</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>121.7681242419971</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539866</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.5292393953953</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>54.53341649877016</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>17.53316602619077</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>17.5331660261901</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.9430992003371</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>253.9512290186725</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.963052384154964</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>31.10811072719332</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>285.0189589184517</v>
+        <v>68.90171938503953</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>85.09628919973932</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>42.29200062050099</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>362.5871609895956</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>233.1639621694966</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>49.00186811941006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>104.8826817288989</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>316.7197341507565</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>28.20584125154443</v>
+        <v>13.10385380111546</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>170.1057362093163</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>23.34416082770747</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>80.50796942908565</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>111.7618467056232</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>238.0876352961039</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>211.078518472239</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.803036704879</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3899231758514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>229.796569204137</v>
+        <v>35.21134837541717</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.33640507852714</v>
+        <v>97.16210696178891</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>143.3574269446598</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>44.28190385754277</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>39.02279286010697</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>105.9626607935821</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0.6767922104155981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>8.55924282890617</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>167.1308651661306</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>229.7965692041375</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>147.4560401914896</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>57.53747797766582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.7328476307629</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>302.4973592433166</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>134.0134608363822</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>5.264199955998566</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>35.19569619650092</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>394.54006250777</v>
       </c>
       <c r="G41" t="n">
-        <v>302.4973592433175</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>166.4648320575205</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>76.3492485097303</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>354.459795705323</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.27182779876188</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>86.66480470122536</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3103090327656</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="C2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="D2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344767</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
@@ -4363,19 +4363,19 @@
         <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298174</v>
+        <v>432.4256445709462</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>970.4638329179309</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>735.3117246861882</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>481.0743679579866</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>858.0168610860233</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>650.2565623210693</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2137498124562</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>385.880281650567</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>238.9903341526566</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375339</v>
@@ -4530,10 +4530,10 @@
         <v>533.7933752329601</v>
       </c>
       <c r="X4" t="n">
-        <v>352.8622146426959</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.8622146426959</v>
+        <v>533.7933752329601</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>598.6038419874048</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="C5" t="n">
-        <v>598.6038419874048</v>
+        <v>1324.309302627453</v>
       </c>
       <c r="D5" t="n">
-        <v>598.6038419874048</v>
+        <v>966.0436040207028</v>
       </c>
       <c r="E5" t="n">
-        <v>598.6038419874048</v>
+        <v>580.2553514224585</v>
       </c>
       <c r="F5" t="n">
-        <v>187.6179371977973</v>
+        <v>169.2694466328509</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705479</v>
+        <v>156.8635416863039</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705479</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780281</v>
+        <v>108.4604468780276</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818697</v>
+        <v>270.9975490818692</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373991</v>
+        <v>509.5409587373985</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176486</v>
+        <v>806.6359018176476</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005897</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836697</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921689</v>
+        <v>1590.394365921687</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="V5" t="n">
-        <v>1362.208932224296</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="W5" t="n">
-        <v>1362.208932224296</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="X5" t="n">
-        <v>988.7431739632166</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="Y5" t="n">
-        <v>598.6038419874048</v>
+        <v>1693.271819567865</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>516.4903303391911</v>
+        <v>800.1230677594418</v>
       </c>
       <c r="C6" t="n">
-        <v>342.0373010580641</v>
+        <v>625.6700384783148</v>
       </c>
       <c r="D6" t="n">
-        <v>193.1028913968129</v>
+        <v>476.7356288170636</v>
       </c>
       <c r="E6" t="n">
-        <v>33.86543639135734</v>
+        <v>317.4981738116081</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135734</v>
+        <v>170.963615838493</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402492</v>
+        <v>184.305991640249</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2331208520545</v>
+        <v>306.2331208520542</v>
       </c>
       <c r="L6" t="n">
-        <v>516.5017339747894</v>
+        <v>516.501733974789</v>
       </c>
       <c r="M6" t="n">
-        <v>781.2321559315307</v>
+        <v>781.2321559315299</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.377849343259</v>
+        <v>1067.377849343258</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.925460517456</v>
+        <v>1306.925460517455</v>
       </c>
       <c r="P6" t="n">
-        <v>1479.850471131925</v>
+        <v>1479.850471131924</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.078019232578</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567867</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="U6" t="n">
-        <v>1589.70693128969</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="V6" t="n">
-        <v>1354.554823057947</v>
+        <v>1638.187560478198</v>
       </c>
       <c r="W6" t="n">
-        <v>1100.317466329746</v>
+        <v>1383.950203749996</v>
       </c>
       <c r="X6" t="n">
-        <v>892.4659661242131</v>
+        <v>1176.098703544464</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.7056673592592</v>
+        <v>968.3384047795098</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.7212998119035</v>
+        <v>647.7212998119034</v>
       </c>
       <c r="C7" t="n">
-        <v>478.7851168839966</v>
+        <v>478.7851168839965</v>
       </c>
       <c r="D7" t="n">
         <v>328.6684774716608</v>
       </c>
       <c r="E7" t="n">
-        <v>180.7553838892677</v>
+        <v>180.7553838892676</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135734</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652199</v>
+        <v>36.28512133652189</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119587</v>
+        <v>396.8594047119585</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191539</v>
+        <v>646.3363778191535</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361654</v>
+        <v>895.315962536165</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="T7" t="n">
-        <v>1278.151894683691</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="U7" t="n">
-        <v>1278.151894683691</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="V7" t="n">
-        <v>1278.151894683691</v>
+        <v>1278.15189468369</v>
       </c>
       <c r="W7" t="n">
-        <v>1278.151894683691</v>
+        <v>1278.15189468369</v>
       </c>
       <c r="X7" t="n">
         <v>1050.162343785673</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.3697646421432</v>
+        <v>829.3697646421431</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.507785786471</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.507785786471</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.24208717972</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.453834581476</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>723.4679297918683</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>307.7631795161572</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,19 +4886,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
         <v>219.2332512597245</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1632.443036858179</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.324699362017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1088.64021115613</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="W10" t="n">
-        <v>1088.64021115613</v>
+        <v>1315.606615969665</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.64021115613</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.8476320126</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1127.748203495404</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C11" t="n">
-        <v>839.8502651939375</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>481.5845665871869</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
         <v>481.5845665871869</v>
@@ -5032,37 +5032,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559526</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.6936570343842</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C13" t="n">
-        <v>608.7574741064773</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6408346941415</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7277411117484</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1450.843444452132</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.124251906171</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X13" t="n">
-        <v>1180.134701008154</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y13" t="n">
-        <v>959.3421218646239</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1914.669427940026</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1548.419770374778</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5296,10 +5296,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176917</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X14" t="n">
-        <v>2304.808759915838</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y14" t="n">
-        <v>1914.669427940026</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.6479724696239</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>283.7117895417171</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>283.7117895417171</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>283.7117895417171</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.6479724696239</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1753.263343671914</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1384.300826731502</v>
       </c>
       <c r="D17" t="n">
         <v>1278.358723975039</v>
@@ -5515,10 +5515,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5527,7 +5527,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176918</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W17" t="n">
-        <v>2325.505862906803</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X17" t="n">
-        <v>2005.586939522201</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y17" t="n">
-        <v>2005.586939522201</v>
+        <v>2139.863183736036</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.8928126690276</v>
+        <v>690.6749427105755</v>
       </c>
       <c r="C19" t="n">
-        <v>241.8928126690276</v>
+        <v>690.6749427105755</v>
       </c>
       <c r="D19" t="n">
-        <v>241.8928126690276</v>
+        <v>540.5583032982397</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5706,19 +5706,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X19" t="n">
-        <v>644.3338566427974</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.5412774992673</v>
+        <v>872.3234075408152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.795585684488</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="X20" t="n">
-        <v>2048.39542574861</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y20" t="n">
-        <v>2048.39542574861</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>382.3382468580006</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.973366846992</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.973366846992</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.973366846992</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="U22" t="n">
-        <v>1556.870499972635</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V22" t="n">
-        <v>1302.186011766748</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W22" t="n">
-        <v>1012.768841729788</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X22" t="n">
-        <v>784.7792908317705</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.9867116882403</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1278.358723975039</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C23" t="n">
         <v>1278.358723975039</v>
@@ -5980,61 +5980,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3112.395196889737</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2781.332309546166</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2428.563654276052</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>2055.097896014972</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.958564039161</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1685.137791144123</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658018</v>
+        <v>1685.137791144123</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658018</v>
+        <v>1396.034924269766</v>
       </c>
       <c r="V25" t="n">
-        <v>1450.843444452132</v>
+        <v>1141.350436063879</v>
       </c>
       <c r="W25" t="n">
-        <v>1161.426274415171</v>
+        <v>851.9332660269189</v>
       </c>
       <c r="X25" t="n">
-        <v>1029.71928130825</v>
+        <v>623.9437151289015</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.71928130825</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>3093.488074938325</v>
+        <v>3084.061055432366</v>
       </c>
       <c r="V26" t="n">
-        <v>3093.488074938325</v>
+        <v>2752.998168088795</v>
       </c>
       <c r="W26" t="n">
-        <v>2740.71941966821</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>752.7622949738575</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C28" t="n">
-        <v>583.8261120459506</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="D28" t="n">
-        <v>433.7094726336148</v>
+        <v>312.5687524002219</v>
       </c>
       <c r="E28" t="n">
-        <v>285.7963790512217</v>
+        <v>164.6556588178288</v>
       </c>
       <c r="F28" t="n">
-        <v>285.7963790512217</v>
+        <v>164.6556588178288</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1672.610059882605</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.192889845645</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.203338947627</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.4107598040972</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1734.047335491681</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C29" t="n">
-        <v>1365.08481855127</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792695</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W29" t="n">
-        <v>2884.252265792695</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X29" t="n">
-        <v>2510.786507531615</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y29" t="n">
-        <v>2120.647175555803</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>252.8190264150503</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>252.8190264150503</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>105.92907891714</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1381.278680221566</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C32" t="n">
-        <v>1012.316163281155</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>893.2540998721638</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>482.2681950825562</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>67.19574492755271</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>67.19574492755271</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.48361052258</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.0178522615</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285688</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.2814163499066</v>
+        <v>856.7165163051885</v>
       </c>
       <c r="C34" t="n">
-        <v>528.3452334219998</v>
+        <v>687.7803333772816</v>
       </c>
       <c r="D34" t="n">
-        <v>528.3452334219998</v>
+        <v>537.6636939649459</v>
       </c>
       <c r="E34" t="n">
-        <v>380.4321398396066</v>
+        <v>389.7506003825528</v>
       </c>
       <c r="F34" t="n">
-        <v>380.4321398396066</v>
+        <v>242.8606528846424</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>75.15781625936137</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1758.475492365128</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1469.372625490771</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>1214.688137284885</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W34" t="n">
-        <v>925.270967247924</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X34" t="n">
-        <v>697.2814163499066</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.2814163499066</v>
+        <v>1038.364981135428</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,34 +7034,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.2995336040051</v>
+        <v>549.3683227675136</v>
       </c>
       <c r="C37" t="n">
-        <v>590.3633506760982</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D37" t="n">
-        <v>440.2467112637624</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E37" t="n">
-        <v>292.3336176813693</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F37" t="n">
-        <v>292.3336176813693</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G37" t="n">
-        <v>124.6307810560883</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>1792.210863612975</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1792.210863612975</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1503.107996738618</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>1248.423508532731</v>
       </c>
       <c r="W37" t="n">
-        <v>1161.740577577775</v>
+        <v>959.0063384957707</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.740577577775</v>
+        <v>731.0167875977534</v>
       </c>
       <c r="Y37" t="n">
-        <v>940.9479984342448</v>
+        <v>731.0167875977534</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1569.101759311879</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C38" t="n">
-        <v>1569.101759311879</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D38" t="n">
-        <v>1210.836060705129</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E38" t="n">
-        <v>825.0478081068845</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>414.061903317277</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7171,55 +7171,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3079.948020978306</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3079.948020978306</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883007</v>
+        <v>2748.885133634735</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612893</v>
+        <v>2396.11647836462</v>
       </c>
       <c r="X38" t="n">
-        <v>2345.840931351813</v>
+        <v>2022.65072010354</v>
       </c>
       <c r="Y38" t="n">
-        <v>1955.701599376001</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>684.4520072430315</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>866.1004720732712</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1569.10175931188</v>
+        <v>2332.706849548772</v>
       </c>
       <c r="C41" t="n">
-        <v>1569.10175931188</v>
+        <v>1963.74433260836</v>
       </c>
       <c r="D41" t="n">
-        <v>1210.83606070513</v>
+        <v>1605.478634001609</v>
       </c>
       <c r="E41" t="n">
-        <v>825.0478081068854</v>
+        <v>1219.690381403365</v>
       </c>
       <c r="F41" t="n">
-        <v>414.0619033172779</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7414,7 +7414,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7426,7 +7426,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7453,10 +7453,10 @@
         <v>2719.306689612893</v>
       </c>
       <c r="X41" t="n">
-        <v>2345.840931351814</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y41" t="n">
-        <v>1955.701599376002</v>
+        <v>2719.306689612893</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>462.6853918125577</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C43" t="n">
-        <v>293.7492088846508</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>143.6325694723151</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218343</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427974</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y43" t="n">
-        <v>644.3338566427974</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1617.939223126803</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
         <v>406.0926155839475</v>
@@ -7651,13 +7651,13 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7681,19 +7681,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W44" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X44" t="n">
-        <v>2051.278283189674</v>
+        <v>2320.234320494773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2004.539063190924</v>
+        <v>1930.094988518961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.3439163053883</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C46" t="n">
-        <v>549.4077333774815</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D46" t="n">
-        <v>399.2910939651457</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>251.3780003827526</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>251.3780003827526</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.774511177176</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X46" t="n">
-        <v>1120.784960279158</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y46" t="n">
-        <v>899.9923811356281</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157948</v>
+        <v>25.82445471157959</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>149.2371260211881</v>
+        <v>149.0413681067564</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688986</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>80.25393285255581</v>
+        <v>296.371172385968</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>59.65872571458146</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>244.23099771609</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>2.685730781411962</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>153.0739764865569</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>96.41917990352118</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>137.8720259467259</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>249.800359891784</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>53.01136652771254</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.2281213950247</v>
+        <v>133.3301088454537</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>157.6465222608186</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>346.3869398507616</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.424183240961696</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>78.00717862581868</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>144.6462063673767</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>39.91665348666299</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>38.96598862656285</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>95.31973221318572</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>21.19860275476498</v>
+        <v>215.7838235834848</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.68940318050109</v>
+        <v>68.86370129723932</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>239.3764147188208</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>310.4011377631402</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>127.0030153989212</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>248.7203808271008</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>40.90013756251035</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.1957720854146</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>52.41808411003856</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>21.19860275476452</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>222.2750604869794</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>87.21753693665497</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>56.03617770067896</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>108.4243664101368</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>69.90450930323797</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>161.9826211426293</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>183.3889571555939</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>12.33598323394142</v>
       </c>
       <c r="G41" t="n">
-        <v>108.4243664101359</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>13.36714812441681</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>70.08471413683887</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>15.27130497314602</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.9661108572917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>79.36100355780286</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.27434431932915</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811712.2299868733</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868733</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868731</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811712.2299868731</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868733</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868733</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811712.2299868732</v>
+        <v>811712.2299868733</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719634</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
         <v>392146.663816559</v>
@@ -26331,31 +26331,31 @@
         <v>392146.663816559</v>
       </c>
       <c r="H2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="I2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.663816559</v>
       </c>
       <c r="J2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="K2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="L2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="M2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="N2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="O2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165591</v>
+        <v>392146.663816559</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739499</v>
+        <v>176672.6241739493</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819075</v>
+        <v>223886.3093819081</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640805</v>
+        <v>41076.9815464079</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946811</v>
+        <v>54988.29121946825</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341497</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>203693.4420659824</v>
+        <v>203693.4420659825</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26432,7 +26432,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211607</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
@@ -26450,7 +26450,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="M4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="N4" t="n">
         <v>10990.29103211609</v>
@@ -26472,7 +26472,7 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923115</v>
+        <v>75746.8716792311</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26484,28 +26484,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-522264.1317425157</v>
       </c>
       <c r="C6" t="n">
-        <v>15986.07975279941</v>
+        <v>15986.07975279978</v>
       </c>
       <c r="D6" t="n">
-        <v>14936.25201275002</v>
+        <v>14936.25201274952</v>
       </c>
       <c r="E6" t="n">
-        <v>121300.8631077978</v>
+        <v>124429.4334760528</v>
       </c>
       <c r="F6" t="n">
-        <v>303373.8429249885</v>
+        <v>306502.4132932435</v>
       </c>
       <c r="G6" t="n">
-        <v>303373.8429249885</v>
+        <v>306502.4132932433</v>
       </c>
       <c r="H6" t="n">
-        <v>303373.8429249885</v>
+        <v>306502.4132932436</v>
       </c>
       <c r="I6" t="n">
-        <v>303373.8429249882</v>
+        <v>306502.4132932434</v>
       </c>
       <c r="J6" t="n">
-        <v>234374.6885058744</v>
+        <v>237503.2588741292</v>
       </c>
       <c r="K6" t="n">
-        <v>262296.8613785803</v>
+        <v>265425.4317468354</v>
       </c>
       <c r="L6" t="n">
-        <v>248385.5517055203</v>
+        <v>251514.1220737752</v>
       </c>
       <c r="M6" t="n">
-        <v>255821.5771315734</v>
+        <v>258950.1474998285</v>
       </c>
       <c r="N6" t="n">
-        <v>303373.8429249885</v>
+        <v>306502.4132932434</v>
       </c>
       <c r="O6" t="n">
-        <v>303373.8429249884</v>
+        <v>306502.4132932434</v>
       </c>
       <c r="P6" t="n">
-        <v>303373.8429249888</v>
+        <v>306502.4132932434</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.446789990806</v>
+        <v>751.4467899908055</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,40 +26792,40 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919668</v>
+        <v>423.3179548919662</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213277</v>
+        <v>137.3917762213273</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267332</v>
+        <v>182.6181021267337</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904604</v>
+        <v>159.60407489046</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080718</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904604</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>250.9947133678745</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>378.6812964609974</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442038</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,16 +27514,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>160.4592422416192</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>10.90271287267575</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>118.6237339582747</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>46.5878064046756</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>354.0798355641047</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>186.7689715903797</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813368</v>
+        <v>33.74703566813371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,10 +27751,10 @@
         <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>123.3058058756752</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>178.2671706506551</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>204.6225874792108</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>234.6044772976379</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>183.7907424631435</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.0673235437329</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>216.785643613057</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>221.0295325966347</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339031</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677676</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599719</v>
+        <v>384.2687421599716</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159764</v>
+        <v>476.7193540159761</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285351</v>
+        <v>530.4421353285348</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383296</v>
+        <v>539.0252436383294</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113102</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906146</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.222309719074</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639395</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
         <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442791</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328139</v>
+        <v>55.64959718328137</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876873</v>
+        <v>350.9469182876871</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449892</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345737</v>
+        <v>420.3777660345734</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587854</v>
+        <v>384.5635284587852</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077332</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633077</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680708</v>
+        <v>6.514901886807076</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390979</v>
+        <v>95.80330632390974</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029917</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379548</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.5326998488041</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843484</v>
+        <v>60.9287839884348</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544876</v>
+        <v>23.61513928544875</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879979</v>
+        <v>5.789835922879975</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548919</v>
+        <v>0.07391279901548915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32004,7 +32004,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M14" t="n">
         <v>769.2673490574995</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410813</v>
+        <v>75.34849544108113</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149913</v>
+        <v>164.1788911149911</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459892</v>
+        <v>240.9529390459889</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012624</v>
+        <v>300.0959021012621</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417387</v>
+        <v>309.6121800417384</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896234</v>
+        <v>278.8880411896232</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353451</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446245</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170625</v>
+        <v>151.9601568170624</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755609</v>
+        <v>123.1587163755607</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078131</v>
+        <v>212.3925385078129</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229709</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512403</v>
+        <v>289.0360539512401</v>
       </c>
       <c r="O6" t="n">
-        <v>241.967284014341</v>
+        <v>241.9672840143407</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934029</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.5771196322649</v>
+        <v>215.3813617178331</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144308994</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237019</v>
+        <v>2.444126207236963</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171834</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628439</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691731</v>
+        <v>27.30642203691725</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35652,7 +35652,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
